--- a/11-pairplot/11-pairplot-solution.xlsx
+++ b/11-pairplot/11-pairplot-solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\11-pairplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B52D94A-1F83-49B8-ADA3-6AF41CA52F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC89A416-0151-4969-8702-D4CFB55AB1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
@@ -1504,9 +1504,9 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1755,7 +1755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2844,7 +2844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -3350,7 +3350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -3373,7 +3373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A91" t="s">
         <v>7</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A92" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A94" t="s">
         <v>7</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A95" t="s">
         <v>7</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A96" t="s">
         <v>7</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -3741,7 +3741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A99" t="s">
         <v>7</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A100" t="s">
         <v>7</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3833,7 +3833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A102" t="s">
         <v>7</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A103" t="s">
         <v>7</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A105" t="s">
         <v>7</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A107" t="s">
         <v>7</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A108" t="s">
         <v>7</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A109" t="s">
         <v>7</v>
       </c>
@@ -4017,7 +4017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -4063,7 +4063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A123" t="s">
         <v>7</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A124" t="s">
         <v>7</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -4431,7 +4431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -4454,7 +4454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4569,7 +4569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A141" t="s">
         <v>7</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A142" t="s">
         <v>7</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A143" t="s">
         <v>7</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A144" t="s">
         <v>7</v>
       </c>
@@ -4822,7 +4822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A145" t="s">
         <v>7</v>
       </c>
@@ -4845,7 +4845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -4868,7 +4868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A147" t="s">
         <v>7</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A148" t="s">
         <v>7</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A152" t="s">
         <v>7</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A154" t="s">
         <v>14</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A155" t="s">
         <v>14</v>
       </c>
@@ -5075,7 +5075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A156" t="s">
         <v>14</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A158" t="s">
         <v>14</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A159" t="s">
         <v>14</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A160" t="s">
         <v>14</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A161" t="s">
         <v>14</v>
       </c>
@@ -5213,7 +5213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A162" t="s">
         <v>14</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A164" t="s">
         <v>14</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A165" t="s">
         <v>14</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A166" t="s">
         <v>14</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A168" t="s">
         <v>14</v>
       </c>
@@ -5374,7 +5374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A169" t="s">
         <v>14</v>
       </c>
@@ -5397,7 +5397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A170" t="s">
         <v>14</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A171" t="s">
         <v>14</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A172" t="s">
         <v>14</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A173" t="s">
         <v>14</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A174" t="s">
         <v>14</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A175" t="s">
         <v>14</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A177" t="s">
         <v>14</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A178" t="s">
         <v>14</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A179" t="s">
         <v>14</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A180" t="s">
         <v>14</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A181" t="s">
         <v>14</v>
       </c>
@@ -5673,7 +5673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A182" t="s">
         <v>14</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A183" t="s">
         <v>14</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A184" t="s">
         <v>14</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A185" t="s">
         <v>14</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A187" t="s">
         <v>14</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A188" t="s">
         <v>14</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A189" t="s">
         <v>14</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A190" t="s">
         <v>14</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A191" t="s">
         <v>14</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A192" t="s">
         <v>14</v>
       </c>
@@ -5926,7 +5926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A193" t="s">
         <v>14</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A194" t="s">
         <v>14</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A196" t="s">
         <v>14</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A197" t="s">
         <v>14</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A198" t="s">
         <v>14</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A199" t="s">
         <v>14</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A200" t="s">
         <v>14</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A201" t="s">
         <v>14</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A202" t="s">
         <v>14</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A203" t="s">
         <v>14</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A204" t="s">
         <v>14</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A205" t="s">
         <v>14</v>
       </c>
@@ -6225,7 +6225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A206" t="s">
         <v>14</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A207" t="s">
         <v>14</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A208" t="s">
         <v>14</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A209" t="s">
         <v>14</v>
       </c>
@@ -6317,7 +6317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A211" t="s">
         <v>14</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A214" t="s">
         <v>14</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A215" t="s">
         <v>14</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A216" t="s">
         <v>14</v>
       </c>
@@ -6478,7 +6478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A217" t="s">
         <v>14</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A218" t="s">
         <v>14</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A219" t="s">
         <v>14</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A220" t="s">
         <v>14</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A221" t="s">
         <v>14</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A222" t="s">
         <v>15</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A223" t="s">
         <v>15</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A224" t="s">
         <v>15</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A225" t="s">
         <v>15</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A226" t="s">
         <v>15</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A227" t="s">
         <v>15</v>
       </c>
@@ -6731,7 +6731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A228" t="s">
         <v>15</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A229" t="s">
         <v>15</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A230" t="s">
         <v>15</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A231" t="s">
         <v>15</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A232" t="s">
         <v>15</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -6869,7 +6869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A234" t="s">
         <v>15</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A235" t="s">
         <v>15</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A236" t="s">
         <v>15</v>
       </c>
@@ -6938,7 +6938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A237" t="s">
         <v>15</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A239" t="s">
         <v>15</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A240" t="s">
         <v>15</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A241" t="s">
         <v>15</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A242" t="s">
         <v>15</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A243" t="s">
         <v>15</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A244" t="s">
         <v>15</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A246" t="s">
         <v>15</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A247" t="s">
         <v>15</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A248" t="s">
         <v>15</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A249" t="s">
         <v>15</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A250" t="s">
         <v>15</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A251" t="s">
         <v>15</v>
       </c>
@@ -7283,7 +7283,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A252" t="s">
         <v>15</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A253" t="s">
         <v>15</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A254" t="s">
         <v>15</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A255" t="s">
         <v>15</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A256" t="s">
         <v>15</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A257" t="s">
         <v>15</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A258" t="s">
         <v>15</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A259" t="s">
         <v>15</v>
       </c>
@@ -7467,7 +7467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A260" t="s">
         <v>15</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A261" t="s">
         <v>15</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A262" t="s">
         <v>15</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A263" t="s">
         <v>15</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A264" t="s">
         <v>15</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A265" t="s">
         <v>15</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A267" t="s">
         <v>15</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A268" t="s">
         <v>15</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A269" t="s">
         <v>15</v>
       </c>
@@ -7697,7 +7697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A270" t="s">
         <v>15</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A271" t="s">
         <v>15</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A272" t="s">
         <v>15</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A273" t="s">
         <v>15</v>
       </c>
@@ -7789,7 +7789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A274" t="s">
         <v>15</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A275" t="s">
         <v>15</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A276" t="s">
         <v>15</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A277" t="s">
         <v>15</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A278" t="s">
         <v>15</v>
       </c>
@@ -7904,7 +7904,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A279" t="s">
         <v>15</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A280" t="s">
         <v>15</v>
       </c>
@@ -7950,7 +7950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A281" t="s">
         <v>15</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A282" t="s">
         <v>15</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A283" t="s">
         <v>15</v>
       </c>
@@ -8019,7 +8019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A284" t="s">
         <v>15</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A285" t="s">
         <v>15</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A286" t="s">
         <v>15</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A287" t="s">
         <v>15</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A288" t="s">
         <v>15</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A289" t="s">
         <v>15</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A290" t="s">
         <v>15</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A291" t="s">
         <v>15</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A292" t="s">
         <v>15</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A293" t="s">
         <v>15</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A294" t="s">
         <v>15</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A295" t="s">
         <v>15</v>
       </c>
@@ -8295,7 +8295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A296" t="s">
         <v>15</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A297" t="s">
         <v>15</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A298" t="s">
         <v>15</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -8387,7 +8387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A300" t="s">
         <v>15</v>
       </c>
@@ -8410,7 +8410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A301" t="s">
         <v>15</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A302" t="s">
         <v>15</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A303" t="s">
         <v>15</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A304" t="s">
         <v>15</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A305" t="s">
         <v>15</v>
       </c>
@@ -8525,7 +8525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A306" t="s">
         <v>15</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A307" t="s">
         <v>15</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A308" t="s">
         <v>15</v>
       </c>
@@ -8594,7 +8594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A309" t="s">
         <v>15</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A310" t="s">
         <v>15</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A311" t="s">
         <v>15</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A313" t="s">
         <v>15</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A314" t="s">
         <v>15</v>
       </c>
@@ -8732,7 +8732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A315" t="s">
         <v>15</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A316" t="s">
         <v>15</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A317" t="s">
         <v>15</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A318" t="s">
         <v>15</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A319" t="s">
         <v>15</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A320" t="s">
         <v>15</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A321" t="s">
         <v>15</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A322" t="s">
         <v>15</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A323" t="s">
         <v>15</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A324" t="s">
         <v>15</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A325" t="s">
         <v>15</v>
       </c>
@@ -8985,7 +8985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A326" t="s">
         <v>15</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A327" t="s">
         <v>15</v>
       </c>
@@ -9031,7 +9031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A328" t="s">
         <v>15</v>
       </c>
@@ -9054,7 +9054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A329" t="s">
         <v>15</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A330" t="s">
         <v>15</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A331" t="s">
         <v>15</v>
       </c>
@@ -9123,7 +9123,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -9146,7 +9146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A333" t="s">
         <v>15</v>
       </c>
@@ -9169,7 +9169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A334" t="s">
         <v>15</v>
       </c>
@@ -9192,7 +9192,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A335" t="s">
         <v>15</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A336" t="s">
         <v>15</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A337" t="s">
         <v>15</v>
       </c>
@@ -9261,7 +9261,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A338" t="s">
         <v>15</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A339" t="s">
         <v>15</v>
       </c>
@@ -9307,7 +9307,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A340" t="s">
         <v>15</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A341" t="s">
         <v>15</v>
       </c>
@@ -9341,7 +9341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A342" t="s">
         <v>15</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A343" t="s">
         <v>15</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A344" t="s">
         <v>15</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.65">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A345" t="s">
         <v>15</v>
       </c>

--- a/11-pairplot/11-pairplot-solution.xlsx
+++ b/11-pairplot/11-pairplot-solution.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\11-pairplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC89A416-0151-4969-8702-D4CFB55AB1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E898D891-150C-4A0E-8634-BA6F8199990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,23 +730,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>277092</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>10369</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>42213</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129177</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>60597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D679607-1305-8569-F1B6-BFE95ABEEB94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CDFDDA7-82BA-F629-DEC5-1FA9ADE374C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -767,8 +767,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10789228" y="424296"/>
-          <a:ext cx="5240459" cy="5254986"/>
+          <a:off x="7924800" y="504825"/>
+          <a:ext cx="9035052" cy="8890272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,23 +779,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>811557</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>805454</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>243477</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0110219F-F804-6405-4B82-6E3A256AEC87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323E0DF2-C7B0-C67D-5439-98A10FF99166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -803,7 +803,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!I25"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!I39"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -816,8 +816,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9601200" y="6400801"/>
-          <a:ext cx="6297957" cy="5600700"/>
+          <a:off x="8362950" y="10163175"/>
+          <a:ext cx="10159004" cy="9016002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -829,22 +829,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>406978</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>112569</xdr:rowOff>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>773416</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>225137</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>338729</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>229381</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64D9F87-A6E5-615B-3DF6-BEB8F69CF006}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032BF879-CE25-D7D2-0290-4FEDFB8EEC66}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -852,7 +852,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!I48"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!I76"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -865,8 +865,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10919114" y="12728865"/>
-          <a:ext cx="5873620" cy="5212772"/>
+          <a:off x="8782050" y="19945350"/>
+          <a:ext cx="10159004" cy="9354331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1166,16 +1166,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50CF2EB0-6A37-4799-95FF-B262769EB17A}" name="penguins" displayName="penguins" ref="A1:G345" totalsRowShown="0">
-  <autoFilter ref="A1:G345" xr:uid="{50CF2EB0-6A37-4799-95FF-B262769EB17A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CEE395A2-0EB5-46D6-887A-F121FEFAED30}" name="penguins" displayName="penguins" ref="A1:G345" totalsRowShown="0">
+  <autoFilter ref="A1:G345" xr:uid="{CEE395A2-0EB5-46D6-887A-F121FEFAED30}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{77DFEB53-C2E7-4BB5-A915-F099607496BF}" name="species"/>
-    <tableColumn id="2" xr3:uid="{6A724088-2545-4514-90CC-FC6B7B8D93B6}" name="island"/>
-    <tableColumn id="3" xr3:uid="{609F06D9-EF19-4235-A4D9-8D8F9C7B4CE3}" name="bill_length_mm"/>
-    <tableColumn id="4" xr3:uid="{37E2D9B0-1C0D-47AC-9383-1F6D5D2745BC}" name="bill_depth_mm"/>
-    <tableColumn id="5" xr3:uid="{98CC9498-AE66-450F-8ABA-DC5CE4A658F8}" name="flipper_length_mm"/>
-    <tableColumn id="6" xr3:uid="{8100BC9F-6657-48E7-A119-58D5181042A5}" name="body_mass_g"/>
-    <tableColumn id="7" xr3:uid="{FDEAFDFA-FAE7-48E0-AE68-FF434262D115}" name="sex"/>
+    <tableColumn id="1" xr3:uid="{418023A6-02EE-4174-A513-35717FAB0418}" name="species"/>
+    <tableColumn id="2" xr3:uid="{8E6A71FD-D346-4B7B-A797-71CC3B389182}" name="island"/>
+    <tableColumn id="3" xr3:uid="{469F1319-8F95-4819-854B-55FFA7A0BA09}" name="bill_length_mm"/>
+    <tableColumn id="4" xr3:uid="{3C4244BC-8752-4847-AFB5-4528C757C8DF}" name="bill_depth_mm"/>
+    <tableColumn id="5" xr3:uid="{3E2C14B7-9E3D-4560-9AC7-350CB8BFE40A}" name="flipper_length_mm"/>
+    <tableColumn id="6" xr3:uid="{FBCD344A-A9EA-4ABE-9F85-F956FB66E529}" name="body_mass_g"/>
+    <tableColumn id="7" xr3:uid="{0312F52B-7119-4FF8-8D6B-806C6BE20CC6}" name="sex"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1500,9 +1500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I345"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <sheetData>
@@ -1870,7 +1868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +1937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1962,7 +1960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2008,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2054,7 +2052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2076,12 +2074,8 @@
       <c r="G25" t="s">
         <v>9</v>
       </c>
-      <c r="I25" t="e" cm="1" vm="3">
-        <f t="array" ref="I25">_xlfn._xlws.PY(2,0)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.85">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2104,7 +2098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2127,7 +2121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2150,7 +2144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2173,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2196,7 +2190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2219,7 +2213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2402,6 +2396,10 @@
       <c r="G39" t="s">
         <v>10</v>
       </c>
+      <c r="I39" t="e" cm="1" vm="3">
+        <f t="array" ref="I39">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A40" t="s">
@@ -2609,10 +2607,6 @@
       <c r="G48" t="s">
         <v>9</v>
       </c>
-      <c r="I48" t="e" cm="1" vm="4">
-        <f t="array" ref="I48">_xlfn._xlws.PY(3,0)</f>
-        <v>#VALUE!</v>
-      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.85">
       <c r="A49" t="s">
@@ -2982,7 +2976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -3005,7 +2999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -3028,7 +3022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -3051,7 +3045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3074,7 +3068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -3097,7 +3091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -3120,7 +3114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -3143,7 +3137,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -3166,7 +3160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -3189,7 +3183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -3212,7 +3206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -3235,7 +3229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -3257,8 +3251,12 @@
       <c r="G76" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.85">
+      <c r="I76" t="e" cm="1" vm="4">
+        <f t="array" ref="I76">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -3281,7 +3279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -3304,7 +3302,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.85">
       <c r="A80" t="s">
         <v>7</v>
       </c>

--- a/11-pairplot/11-pairplot-solution.xlsx
+++ b/11-pairplot/11-pairplot-solution.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\11-pairplot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E898D891-150C-4A0E-8634-BA6F8199990D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75DD064-1635-418B-BB7A-AE470EE542CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="mpg" sheetId="1" r:id="rId1"/>
+    <sheet name="11-pairplot" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -754,7 +754,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!I3"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'11-pairplot'!I3"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -803,7 +803,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!I39"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'11-pairplot'!I39"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -852,7 +852,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="mpg!I76"/>
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'11-pairplot'!I76"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
